--- a/General.Mvc/wwwroot/Files/importfile/明细表模板.xlsx
+++ b/General.Mvc/wwwroot/Files/importfile/明细表模板.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
-  <si>
-    <t>采购员</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>订单号</t>
   </si>
@@ -42,71 +39,86 @@
     <t>规范</t>
   </si>
   <si>
-    <t>厚度</t>
-  </si>
-  <si>
-    <t>长</t>
-  </si>
-  <si>
-    <t>宽</t>
-  </si>
-  <si>
     <t>采购数量</t>
   </si>
   <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>发运日期</t>
+  </si>
+  <si>
+    <t>发货人</t>
+  </si>
+  <si>
+    <t>制造商</t>
+  </si>
+  <si>
+    <t>原产国</t>
+  </si>
+  <si>
+    <t>运单号</t>
+  </si>
+  <si>
+    <t>账册号</t>
+  </si>
+  <si>
+    <t>账册项号</t>
+  </si>
+  <si>
+    <t>炉批号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>采购单位</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>总价</t>
-  </si>
-  <si>
-    <t>发运日期</t>
-  </si>
-  <si>
-    <t>发货人</t>
-  </si>
-  <si>
-    <t>制造商</t>
-  </si>
-  <si>
-    <t>原产国</t>
-  </si>
-  <si>
-    <t>炉批号（质量编号）</t>
-  </si>
-  <si>
-    <t>运单号</t>
-  </si>
-  <si>
-    <t>账册号</t>
-  </si>
-  <si>
-    <t>账册项号</t>
-  </si>
-  <si>
-    <t>备案单位</t>
-  </si>
-  <si>
-    <t>按备案单位折算单价</t>
-  </si>
-  <si>
-    <t>法定单位</t>
-  </si>
-  <si>
-    <t>按法定单位折算单价</t>
-  </si>
-  <si>
-    <t>合格证号</t>
-  </si>
-  <si>
-    <t>炉批号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报单位</t>
+  </si>
+  <si>
+    <t>法定单位1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法定单位2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格1</t>
+  </si>
+  <si>
+    <t>规格2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装规格</t>
+  </si>
+  <si>
+    <t>发票号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折算关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打码号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -186,6 +198,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -307,7 +320,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,7 +332,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,186 +647,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:31">
       <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="S1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="4">
-        <v>44104</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
